--- a/output/寶典_by_ricky.xlsx
+++ b/output/寶典_by_ricky.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
   <si>
     <t>CODIV</t>
   </si>
@@ -28,48 +28,156 @@
     <t>memo</t>
   </si>
   <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
     <t>2P</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>24</t>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>2B</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
-    <t>45</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>PROPYLENE COPOLYMER</t>
+  </si>
+  <si>
+    <t>EPOXIDIZED SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
+    <t>SOYABEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>CIF VIZAG INDIA</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>METHACRYLATE ACID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
   </si>
   <si>
     <t>EVA</t>
   </si>
   <si>
-    <t>TAIWAN</t>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
+    <t>ISO NONYL ALCOHOL</t>
+  </si>
+  <si>
+    <t>S65D QUANTITY</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>TAIWANPP</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
   </si>
   <si>
     <t>JAPANESE</t>
   </si>
   <si>
+    <t>CIF NINGBO CHINA</t>
+  </si>
+  <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
     <t>KGCFR</t>
   </si>
   <si>
@@ -85,10 +193,16 @@
     <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
   </si>
   <si>
+    <t>TAIWANPRICE</t>
+  </si>
+  <si>
     <t>PORTCHINA</t>
   </si>
   <si>
     <t>WHITE</t>
+  </si>
+  <si>
+    <t>TAIWANCAUSTIC</t>
   </si>
   <si>
     <t>ricky + der</t>
@@ -449,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,54 +588,54 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -529,32 +643,32 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -562,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -573,98 +687,98 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,21 +786,21 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,21 +808,736 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
         <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/output/寶典_by_ricky.xlsx
+++ b/output/寶典_by_ricky.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>CODIV</t>
   </si>
@@ -28,13 +28,166 @@
     <t>memo</t>
   </si>
   <si>
-    <t>2P</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2B</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>CIF HAIPHONG PORT</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
+    <t>SOYABEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>CIF VIZAG INDIA</t>
+  </si>
+  <si>
+    <t>PROPYLENE</t>
+  </si>
+  <si>
+    <t>METHACRYLATE ACID</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
     <t>EVA</t>
+  </si>
+  <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
+    <t>ISO NONYL ALCOHOL</t>
+  </si>
+  <si>
+    <t>S65D QUANTITY</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>TAIWANPP</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
+  </si>
+  <si>
+    <t>CIF NINGBO CHINA</t>
+  </si>
+  <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
+    <t>KGCFR</t>
+  </si>
+  <si>
+    <t>2100ANC1</t>
+  </si>
+  <si>
+    <t>CHINASTABILIZER</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
+  </si>
+  <si>
+    <t>TAIWANPRICE</t>
+  </si>
+  <si>
+    <t>PORTCHINA</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>TAIWANCAUSTIC</t>
   </si>
   <si>
     <t>ricky + der</t>
@@ -395,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,10 +584,670 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/output/寶典_by_ricky.xlsx
+++ b/output/寶典_by_ricky.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="59">
   <si>
     <t>CODIV</t>
   </si>
@@ -28,28 +28,166 @@
     <t>memo</t>
   </si>
   <si>
-    <t>2P</t>
+    <t>27</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
-    <t>4A</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1P</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2B</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>CIF HAIPHONG PORT</t>
+  </si>
+  <si>
+    <t>RESIN</t>
+  </si>
+  <si>
+    <t>PURIFIED ISOPHTHALIC ACID</t>
+  </si>
+  <si>
+    <t>SOYABEAN OIL</t>
+  </si>
+  <si>
+    <t>NYLON 6 FILAMENT YARN</t>
+  </si>
+  <si>
+    <t>CIF VIZAG INDIA</t>
+  </si>
+  <si>
+    <t>PROPYLENE</t>
+  </si>
+  <si>
+    <t>METHACRYLATE ACID</t>
+  </si>
+  <si>
+    <t>POLYPROPYLENE RESIN GRADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2EH </t>
+  </si>
+  <si>
+    <t>BPA BISPHENOLA</t>
+  </si>
+  <si>
+    <t>LAMINATE</t>
+  </si>
+  <si>
+    <t>NYLON</t>
+  </si>
+  <si>
+    <t>POLYESTER FILM</t>
+  </si>
+  <si>
     <t>EVA</t>
   </si>
   <si>
+    <t>SOYBEAN OIL</t>
+  </si>
+  <si>
+    <t>PROCESS OIL 70N</t>
+  </si>
+  <si>
+    <t>ISO NONYL ALCOHOL</t>
+  </si>
+  <si>
+    <t>S65D QUANTITY</t>
+  </si>
+  <si>
     <t>DOA</t>
   </si>
   <si>
+    <t>CIF PORT KLANG MALAYSIA2000</t>
+  </si>
+  <si>
+    <t>MONOETHYLENE GLYCOL</t>
+  </si>
+  <si>
+    <t>TAIWANPP</t>
+  </si>
+  <si>
+    <t>NAN YA RELEASE FILM</t>
+  </si>
+  <si>
     <t>CIF NINGBO CHINA</t>
+  </si>
+  <si>
+    <t>PARAFFIN</t>
+  </si>
+  <si>
+    <t>KGCFR</t>
+  </si>
+  <si>
+    <t>2100ANC1</t>
+  </si>
+  <si>
+    <t>CHINASTABILIZER</t>
+  </si>
+  <si>
+    <t>MMA</t>
+  </si>
+  <si>
+    <t>PORT INDIARNCONTRACTDETAILSRNPI</t>
+  </si>
+  <si>
+    <t>TAIWANPRICE</t>
+  </si>
+  <si>
+    <t>PORTCHINA</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>TAIWANCAUSTIC</t>
   </si>
   <si>
     <t>ricky + der</t>
@@ -410,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,10 +573,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,65 +595,659 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
